--- a/hashes.xlsx
+++ b/hashes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\John\Documents\1_GitHub\NSSECU3-HashAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838352A4-0E9E-4E6E-8500-70674FAAF391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BFDB3D-13EA-43C1-B55F-9C54AB234736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="1644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="1643">
   <si>
     <t>Hashes</t>
   </si>
@@ -4965,9 +4965,6 @@
   </si>
   <si>
     <t>fffadeda975e01bb25fddcc63670cb1b73082db4addc58e782f0b4aa2af976e4</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -5361,7 +5358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1639" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1615" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C1633" sqref="C1633"/>
     </sheetView>
   </sheetViews>
@@ -13555,60 +13552,57 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="1633" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1633" t="s">
         <v>1632</v>
       </c>
-      <c r="C1633" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="1634" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1634" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="1635" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1635" t="s">
         <v>1634</v>
       </c>
     </row>
-    <row r="1636" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1636" t="s">
         <v>1635</v>
       </c>
     </row>
-    <row r="1637" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1637" t="s">
         <v>1636</v>
       </c>
     </row>
-    <row r="1638" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1638" t="s">
         <v>1637</v>
       </c>
     </row>
-    <row r="1639" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1639" t="s">
         <v>1638</v>
       </c>
     </row>
-    <row r="1640" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1640" t="s">
         <v>1639</v>
       </c>
     </row>
-    <row r="1641" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1641" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="1642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1642" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="1643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1643" t="s">
         <v>1642</v>
       </c>
@@ -13624,26 +13618,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="be4252e1-a284-42f1-8417-be526f46910e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d0b5b3dc-0d07-4eb4-9e08-c2f386e9b290" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B3218AAC4E429459E775E9109C55646" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bea61eed83e0ed763934b398db3d90de">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="be4252e1-a284-42f1-8417-be526f46910e" xmlns:ns3="d0b5b3dc-0d07-4eb4-9e08-c2f386e9b290" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="883bf3949c065fe3b9f548aba6ba2314" ns2:_="" ns3:_="">
     <xsd:import namespace="be4252e1-a284-42f1-8417-be526f46910e"/>
@@ -13892,26 +13866,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{602BEBE0-C778-4B68-B833-E54ED1D03077}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be4252e1-a284-42f1-8417-be526f46910e"/>
-    <ds:schemaRef ds:uri="d0b5b3dc-0d07-4eb4-9e08-c2f386e9b290"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43A9A1BE-FE26-4657-A855-78E7D66D8930}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="be4252e1-a284-42f1-8417-be526f46910e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d0b5b3dc-0d07-4eb4-9e08-c2f386e9b290" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65A10D51-5743-4B5B-BABF-ED6A92BFC39B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13928,4 +13903,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43A9A1BE-FE26-4657-A855-78E7D66D8930}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{602BEBE0-C778-4B68-B833-E54ED1D03077}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be4252e1-a284-42f1-8417-be526f46910e"/>
+    <ds:schemaRef ds:uri="d0b5b3dc-0d07-4eb4-9e08-c2f386e9b290"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>